--- a/biology/Botanique/Côte_d'Or/Côte_d'Or.xlsx
+++ b/biology/Botanique/Côte_d'Or/Côte_d'Or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4te_d%27Or</t>
+          <t>Côte_d'Or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La côte d'Or est un ensemble de collines de France situé en Bourgogne, marquant la bordure occidentale de la plaine de Saône entre le Morvan au sud-ouest et le plateau de Langres au nord-est.
-D'un point de vue géologique, il s'agit d'un horst formé par escarpement de faille dû à l'ouverture du rift ouest-européen[2]. Dominant du nord au sud la plaine de la Saône, elle s'étend entre Dijon et Beaune sur une longueur d'environ 80 km. Le point culminant de cet escarpement est un point non nommé situé dans le bois de Pierre Saux, sur la commune de Détain-et-Bruant[3].
+D'un point de vue géologique, il s'agit d'un horst formé par escarpement de faille dû à l'ouverture du rift ouest-européen. Dominant du nord au sud la plaine de la Saône, elle s'étend entre Dijon et Beaune sur une longueur d'environ 80 km. Le point culminant de cet escarpement est un point non nommé situé dans le bois de Pierre Saux, sur la commune de Détain-et-Bruant.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4te_d%27Or</t>
+          <t>Côte_d'Or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour dénommer le nouveau département, c’est bien cette caractéristique géographique de l’escarpement de la Côte, séparant la moitié ouest montagneuse du département (partie du Morvan, haut Auxois, plateaux calcaires), de la plaine de la Saône, orienté à l’est (l'orient), qui a retenu l’attention du Comité de division, et de ses experts géographes, chargé en 1790 de la division de la France par l'Assemblée constituante (voir l'origine du nom de la Côte-d'Or).
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4te_d%27Or</t>
+          <t>Côte_d'Or</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Viticulture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La côte d'Or est couverte de vignobles réputés.
 Elle est divisée en deux, la côte de Nuits pour sa moitié nord et la côte de Beaune pour sa partie sud. Elle se prolonge vers le sud d'abord dans le département de Saône-et-Loire par la côte chalonnaise et le Mâconnais, puis dans le Rhône par le Beaujolais.
